--- a/Excel/镇魂街/monster.怪物.xlsx
+++ b/Excel/镇魂街/monster.怪物.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="主线怪物" sheetId="27" r:id="rId2"/>
     <sheet name="芦花古楼怪" sheetId="28" r:id="rId3"/>
     <sheet name="个人BOSS" sheetId="30" r:id="rId4"/>
-    <sheet name="教学关卡" sheetId="32" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="101">
   <si>
     <t>sheet名</t>
   </si>
@@ -284,18 +283,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>教学关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>teach_monster.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>reed_tower_monster</t>
     </r>
@@ -340,10 +327,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string:e</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>魔导机兵团</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,22 +344,6 @@
   </si>
   <si>
     <t>小蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -408,7 +375,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>teach_monster.lua</t>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301001#1302001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301002#1302002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301008#1302008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀鬼兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀鬼兵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,7 +987,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1011,10 +1022,10 @@
     </row>
     <row r="4" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -1031,11 +1042,11 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>70</v>
@@ -1052,7 +1063,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
@@ -1073,7 +1084,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>70</v>
@@ -1084,44 +1095,6 @@
         <v>1</v>
       </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1132,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1125,7 @@
     <col min="17" max="17" width="16.5" customWidth="1"/>
     <col min="18" max="19" width="9.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.125" customWidth="1"/>
-    <col min="21" max="21" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -1225,10 +1198,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1282,7 +1255,7 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -1357,8 +1330,8 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1393,20 +1366,22 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
-        <v>1801003</v>
+      <c r="O4" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
       <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="U4" s="2">
-        <v>1201003</v>
+      <c r="U4" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1416,8 +1391,8 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1452,20 +1427,22 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
-        <v>1801002</v>
+      <c r="O5" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
       <c r="T5" s="2">
         <v>2</v>
       </c>
-      <c r="U5" s="2">
-        <v>1201002</v>
+      <c r="U5" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1475,8 +1452,8 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1511,20 +1488,22 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
-        <v>1801002</v>
+      <c r="O6" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
       <c r="T6" s="2">
         <v>2</v>
       </c>
-      <c r="U6" s="2">
-        <v>1201002</v>
+      <c r="U6" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1535,7 +1514,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1582,8 +1561,8 @@
       <c r="T7" s="2">
         <v>2</v>
       </c>
-      <c r="U7" s="2">
-        <v>1201011</v>
+      <c r="U7" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1594,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -1630,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P8" s="2">
         <v>1803012</v>
@@ -1645,8 +1624,8 @@
       <c r="T8" s="2">
         <v>2</v>
       </c>
-      <c r="U8" s="2">
-        <v>1201012</v>
+      <c r="U8" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1657,7 +1636,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1704,8 +1683,8 @@
       <c r="T9" s="2">
         <v>2</v>
       </c>
-      <c r="U9" s="2">
-        <v>1201006</v>
+      <c r="U9" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1763,8 +1742,8 @@
       <c r="T10" s="2">
         <v>3</v>
       </c>
-      <c r="U10" s="2">
-        <v>1201003</v>
+      <c r="U10" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1822,8 +1801,8 @@
       <c r="T11" s="2">
         <v>1</v>
       </c>
-      <c r="U11" s="2">
-        <v>1201001</v>
+      <c r="U11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1881,8 +1860,8 @@
       <c r="T12" s="2">
         <v>3</v>
       </c>
-      <c r="U12" s="2">
-        <v>1201003</v>
+      <c r="U12" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1940,8 +1919,8 @@
       <c r="T13" s="2">
         <v>3</v>
       </c>
-      <c r="U13" s="2">
-        <v>1201003</v>
+      <c r="U13" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2001,8 +1980,8 @@
       <c r="T14" s="2">
         <v>1</v>
       </c>
-      <c r="U14" s="2">
-        <v>1101008</v>
+      <c r="U14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2064,8 +2043,8 @@
       <c r="T15" s="2">
         <v>1</v>
       </c>
-      <c r="U15" s="2">
-        <v>1102013</v>
+      <c r="U15" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2123,8 +2102,8 @@
       <c r="T16" s="2">
         <v>3</v>
       </c>
-      <c r="U16" s="2">
-        <v>1201003</v>
+      <c r="U16" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2182,8 +2161,8 @@
       <c r="T17" s="2">
         <v>2</v>
       </c>
-      <c r="U17" s="2">
-        <v>1201002</v>
+      <c r="U17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2241,8 +2220,8 @@
       <c r="T18" s="2">
         <v>2</v>
       </c>
-      <c r="U18" s="2">
-        <v>1201002</v>
+      <c r="U18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2300,8 +2279,8 @@
       <c r="T19" s="2">
         <v>2</v>
       </c>
-      <c r="U19" s="2">
-        <v>1201002</v>
+      <c r="U19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -2309,10 +2288,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -2361,8 +2340,191 @@
       <c r="T20" s="2">
         <v>2</v>
       </c>
-      <c r="U20" s="2">
-        <v>1201010</v>
+      <c r="U20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>250</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>300</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1303002</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
+        <v>2</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>250</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>300</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1303004</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>2</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>250</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>300</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1303013</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2374,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2461,10 +2623,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -2518,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.2">
@@ -2771,7 +2933,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -2830,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -2866,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P8" s="2">
         <v>1803012</v>
@@ -2893,7 +3055,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3545,10 +3707,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -3599,6 +3761,189 @@
       </c>
       <c r="U20" s="2">
         <v>1201010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>250</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>300</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1303002</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
+        <v>2</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>250</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>300</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1303004</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>2</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>250</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>300</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1303013</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3609,10 +3954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3696,10 +4041,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -3753,7 +4098,7 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4006,7 +4351,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -4065,7 +4410,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -4101,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P8" s="2">
         <v>1803012</v>
@@ -4128,7 +4473,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -4780,10 +5125,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -4836,1243 +5181,187 @@
         <v>1201010</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="14" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="19" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>250</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>300</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1303002</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
+        <v>2</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>250</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>300</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1303004</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>2</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>250</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>300</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1303013</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>150</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>400</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>300</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1801003</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <v>3</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1201003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>800</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>300</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1801002</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>2</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1201002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>800</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>300</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1801002</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
-        <v>2</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1201002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>600</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>300</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1801011</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>2</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1201011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>80</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>600</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>300</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1803012</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>17</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8" s="2">
-        <v>2</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1201012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>600</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>300</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1801006</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
-        <v>2</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1201006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>180</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>400</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>300</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1801002</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <v>3</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1201003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>300</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1801003</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1201001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>180</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>400</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>300</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1801002</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
-        <v>3</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1201003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>220</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>600</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>300</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1801002</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
-        <v>3</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1201003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>200</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>800</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>300</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2">
-        <v>12</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1101008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>280</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>300</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1303013</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1303013</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>3</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1102013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>220</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>600</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>300</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1801002</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
-        <v>3</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1201003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>250</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>300</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1801001</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2">
-        <v>2</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1201002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>250</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>300</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1801001</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>2</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1201002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>250</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>300</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1801001</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <v>2</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1201002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>250</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>300</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1801010</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2">
-        <v>2</v>
-      </c>
-      <c r="U20" s="2">
-        <v>1201010</v>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
